--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +543,40 @@
         <v>0.72367</v>
       </c>
       <c r="I2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1636346666666667</v>
+        <v>0.227228</v>
       </c>
       <c r="N2">
-        <v>0.490904</v>
+        <v>0.681684</v>
       </c>
       <c r="O2">
-        <v>0.1786204457433447</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P2">
-        <v>0.1786204457433446</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q2">
-        <v>0.03947249974222223</v>
+        <v>0.05481269558666667</v>
       </c>
       <c r="R2">
-        <v>0.35525249768</v>
+        <v>0.49331426028</v>
       </c>
       <c r="S2">
-        <v>0.01896841811660461</v>
+        <v>0.04842963760713136</v>
       </c>
       <c r="T2">
-        <v>0.01896841811660461</v>
+        <v>0.04842963760713136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.72367</v>
       </c>
       <c r="I3">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J3">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>1.961192</v>
       </c>
       <c r="O3">
-        <v>0.7135997857590926</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P3">
-        <v>0.7135997857590924</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q3">
         <v>0.1576950905155556</v>
@@ -635,10 +635,10 @@
         <v>1.41925581464</v>
       </c>
       <c r="S3">
-        <v>0.07578000966164469</v>
+        <v>0.139331153200024</v>
       </c>
       <c r="T3">
-        <v>0.07578000966164468</v>
+        <v>0.139331153200024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.72367</v>
       </c>
       <c r="I4">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J4">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.225841</v>
       </c>
       <c r="O4">
-        <v>0.08217455976549935</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P4">
-        <v>0.08217455976549934</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q4">
         <v>0.01815937294111111</v>
@@ -697,15 +697,15 @@
         <v>0.16343435647</v>
       </c>
       <c r="S4">
-        <v>0.008726444510275126</v>
+        <v>0.01604467434593177</v>
       </c>
       <c r="T4">
-        <v>0.008726444510275126</v>
+        <v>0.01604467434593177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.133983</v>
+      </c>
+      <c r="H5">
+        <v>0.401949</v>
+      </c>
+      <c r="I5">
+        <v>0.1131999432238703</v>
+      </c>
+      <c r="J5">
+        <v>0.1131999432238703</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.2412233333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.72367</v>
-      </c>
-      <c r="I5">
-        <v>0.1061939916097839</v>
-      </c>
-      <c r="J5">
-        <v>0.1061939916097839</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.023457</v>
+        <v>0.227228</v>
       </c>
       <c r="N5">
-        <v>0.070371</v>
+        <v>0.681684</v>
       </c>
       <c r="O5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q5">
-        <v>0.005658375730000001</v>
+        <v>0.03044468912399999</v>
       </c>
       <c r="R5">
-        <v>0.05092538157</v>
+        <v>0.274002202116</v>
       </c>
       <c r="S5">
-        <v>0.002719119321259519</v>
+        <v>0.02689933865788113</v>
       </c>
       <c r="T5">
-        <v>0.002719119321259518</v>
+        <v>0.02689933865788113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4532080000000001</v>
+        <v>0.133983</v>
       </c>
       <c r="H6">
-        <v>1.359624</v>
+        <v>0.401949</v>
       </c>
       <c r="I6">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J6">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1636346666666667</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N6">
-        <v>0.490904</v>
+        <v>1.961192</v>
       </c>
       <c r="O6">
-        <v>0.1786204457433447</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P6">
-        <v>0.1786204457433446</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q6">
-        <v>0.07416054001066669</v>
+        <v>0.087588795912</v>
       </c>
       <c r="R6">
-        <v>0.6674448600960001</v>
+        <v>0.788299163208</v>
       </c>
       <c r="S6">
-        <v>0.03563767534010036</v>
+        <v>0.07738888954578255</v>
       </c>
       <c r="T6">
-        <v>0.03563767534010035</v>
+        <v>0.07738888954578255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4532080000000001</v>
+        <v>0.133983</v>
       </c>
       <c r="H7">
-        <v>1.359624</v>
+        <v>0.401949</v>
       </c>
       <c r="I7">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J7">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6537306666666667</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N7">
-        <v>1.961192</v>
+        <v>0.225841</v>
       </c>
       <c r="O7">
-        <v>0.7135997857590926</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P7">
-        <v>0.7135997857590924</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q7">
-        <v>0.2962759679786667</v>
+        <v>0.010086284901</v>
       </c>
       <c r="R7">
-        <v>2.666483711808</v>
+        <v>0.09077656410899999</v>
       </c>
       <c r="S7">
-        <v>0.1423747286141528</v>
+        <v>0.008911715020206625</v>
       </c>
       <c r="T7">
-        <v>0.1423747286141528</v>
+        <v>0.008911715020206627</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8083896666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.425169</v>
+      </c>
+      <c r="I8">
+        <v>0.6829945916230425</v>
+      </c>
+      <c r="J8">
+        <v>0.6829945916230425</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.4532080000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.359624</v>
-      </c>
-      <c r="I8">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="J8">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.07528033333333332</v>
+        <v>0.227228</v>
       </c>
       <c r="N8">
-        <v>0.225841</v>
+        <v>0.681684</v>
       </c>
       <c r="O8">
-        <v>0.08217455976549935</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P8">
-        <v>0.08217455976549934</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q8">
-        <v>0.03411764930933334</v>
+        <v>0.1836887671773333</v>
       </c>
       <c r="R8">
-        <v>0.307058843784</v>
+        <v>1.653198904596</v>
       </c>
       <c r="S8">
-        <v>0.01639515717224468</v>
+        <v>0.1622978095071637</v>
       </c>
       <c r="T8">
-        <v>0.01639515717224468</v>
+        <v>0.1622978095071637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4532080000000001</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H9">
-        <v>1.359624</v>
+        <v>2.425169</v>
       </c>
       <c r="I9">
-        <v>0.1995162154690133</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J9">
-        <v>0.1995162154690133</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023457</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N9">
-        <v>0.070371</v>
+        <v>1.961192</v>
       </c>
       <c r="O9">
-        <v>0.02560520873206351</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P9">
-        <v>0.02560520873206351</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q9">
-        <v>0.010630900056</v>
+        <v>0.5284691157164445</v>
       </c>
       <c r="R9">
-        <v>0.09567810050400001</v>
+        <v>4.756222041448</v>
       </c>
       <c r="S9">
-        <v>0.005108654342515445</v>
+        <v>0.466927734291803</v>
       </c>
       <c r="T9">
-        <v>0.005108654342515445</v>
+        <v>0.466927734291803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.577103333333333</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H10">
-        <v>4.73131</v>
+        <v>2.425169</v>
       </c>
       <c r="I10">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J10">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,214 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1636346666666667</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N10">
-        <v>0.490904</v>
+        <v>0.225841</v>
       </c>
       <c r="O10">
-        <v>0.1786204457433447</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P10">
-        <v>0.1786204457433446</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q10">
-        <v>0.2580687782488889</v>
+        <v>0.06085584356988888</v>
       </c>
       <c r="R10">
-        <v>2.32261900424</v>
+        <v>0.547702592129</v>
       </c>
       <c r="S10">
-        <v>0.1240143522866397</v>
+        <v>0.0537690478240759</v>
       </c>
       <c r="T10">
-        <v>0.1240143522866397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>1.577103333333333</v>
-      </c>
-      <c r="H11">
-        <v>4.73131</v>
-      </c>
-      <c r="I11">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="J11">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.6537306666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.961192</v>
-      </c>
-      <c r="O11">
-        <v>0.7135997857590926</v>
-      </c>
-      <c r="P11">
-        <v>0.7135997857590924</v>
-      </c>
-      <c r="Q11">
-        <v>1.031000813502222</v>
-      </c>
-      <c r="R11">
-        <v>9.27900732152</v>
-      </c>
-      <c r="S11">
-        <v>0.495445047483295</v>
-      </c>
-      <c r="T11">
-        <v>0.4954450474832949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>1.577103333333333</v>
-      </c>
-      <c r="H12">
-        <v>4.73131</v>
-      </c>
-      <c r="I12">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="J12">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.07528033333333332</v>
-      </c>
-      <c r="N12">
-        <v>0.225841</v>
-      </c>
-      <c r="O12">
-        <v>0.08217455976549935</v>
-      </c>
-      <c r="P12">
-        <v>0.08217455976549934</v>
-      </c>
-      <c r="Q12">
-        <v>0.1187248646344444</v>
-      </c>
-      <c r="R12">
-        <v>1.06852378171</v>
-      </c>
-      <c r="S12">
-        <v>0.05705295808297954</v>
-      </c>
-      <c r="T12">
-        <v>0.05705295808297953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>1.577103333333333</v>
-      </c>
-      <c r="H13">
-        <v>4.73131</v>
-      </c>
-      <c r="I13">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="J13">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.023457</v>
-      </c>
-      <c r="N13">
-        <v>0.070371</v>
-      </c>
-      <c r="O13">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="P13">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="Q13">
-        <v>0.03699411289</v>
-      </c>
-      <c r="R13">
-        <v>0.33294701601</v>
-      </c>
-      <c r="S13">
-        <v>0.01777743506828855</v>
-      </c>
-      <c r="T13">
-        <v>0.01777743506828855</v>
+        <v>0.0537690478240759</v>
       </c>
     </row>
   </sheetData>
